--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3454.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3454.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.834286864602076</v>
+        <v>1.198361873626709</v>
       </c>
       <c r="B1">
-        <v>2.154124328546053</v>
+        <v>2.11119270324707</v>
       </c>
       <c r="C1">
-        <v>2.226937981158825</v>
+        <v>5.788083553314209</v>
       </c>
       <c r="D1">
-        <v>2.82065527292235</v>
+        <v>0.9916841983795166</v>
       </c>
       <c r="E1">
-        <v>4.318800288228477</v>
+        <v>1.164937019348145</v>
       </c>
     </row>
   </sheetData>
